--- a/data.xlsx
+++ b/data.xlsx
@@ -488,33 +488,33 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>afd</t>
+          <t>josh</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1283123</t>
+          <t>910109100</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-09-08 02:00:21</t>
+          <t>2025-09-08 13:42:02</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
